--- a/Formulario/Respostas_Forms_CONSOLIDADO.xlsx
+++ b/Formulario/Respostas_Forms_CONSOLIDADO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matiax\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\mulherescomputacao\Formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4BC1661D-39FB-4989-9906-1841E224C82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas_Forms (2)" sheetId="2" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'Respostas_Forms (2)'!$A$1:$AI$65</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -944,7 +943,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1539,10 +1538,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -2049,43 +2048,43 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="51" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44865.535729166666</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44868.410555555558</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44868.412615740737</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44868.426631944443</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44868.435844907406</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44868.457708333335</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44868.561168981483</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44869.427303240744</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44869.42769675926</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44869.429513888892</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44869.430451388886</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44869.430543981478</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44869.434062499997</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44869.437997685185</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44869.446886574071</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44869.448750000003</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44869.452581018515</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44869.492488425924</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44869.548206018517</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44869.552037037036</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44869.618958333333</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44869.619722222225</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44869.627800925926</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44869.657349537039</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44869.681747685187</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44872.416817129626</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44872.629513888889</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44872.650925925926</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44872.652407407404</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44872.718182870369</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44872.931458333333</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44872.962094907409</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44872.981087962966</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44873.480729166666</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44873.499918981484</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44873.517500000002</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44873.521145833336</v>
       </c>
@@ -5980,7 +5979,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44873.973530092589</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44910.675324074073</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44910.687314814815</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44910.700335648151</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44910.714004629626</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44910.747650462959</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44910.748252314814</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44910.749490740738</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44910.761076388888</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44910.820289351854</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44910.879930555559</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44910.900173611109</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44910.971122685187</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44911.211076388892</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44911.415138888886</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44911.54247685185</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44911.59070601852</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44911.599675925929</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44911.633009259262</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44911.643182870372</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44911.647002314814</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44917.465590277781</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44917.475798611114</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44917.6169212963</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44917.626122685186</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44918.079687500001</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44922.530127314814</v>
       </c>
@@ -8765,23 +8764,23 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>273</v>
@@ -8801,31 +8800,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -8833,15 +8832,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -8849,12 +8848,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
@@ -8862,56 +8861,56 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -8919,40 +8918,40 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
@@ -8971,83 +8970,83 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
   </sheetData>
@@ -9064,28 +9063,28 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="I4" s="6" t="s">
         <v>125</v>
@@ -9094,7 +9093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="I5" s="6" t="s">
         <v>150</v>
@@ -9103,7 +9102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="I6" s="7" t="s">
         <v>273</v>
@@ -9112,22 +9111,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>96</v>
       </c>
@@ -9138,21 +9137,21 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
@@ -9160,21 +9159,21 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -9182,71 +9181,71 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>106</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
@@ -9265,35 +9264,35 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -9301,54 +9300,54 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
   </sheetData>
@@ -9364,25 +9363,25 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="133" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="149.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="149.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>104</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>118</v>
       </c>
@@ -9419,7 +9418,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>260</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>142</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>118</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -9603,7 +9602,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>118</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
@@ -9625,7 +9624,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>118</v>
       </c>
@@ -9639,12 +9638,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
@@ -9655,12 +9654,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>118</v>
       </c>
@@ -9668,12 +9667,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>260</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>118</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>118</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
@@ -9714,27 +9713,27 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>264</v>
       </c>
@@ -9742,7 +9741,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>118</v>
       </c>
@@ -9750,12 +9749,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -9766,12 +9765,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>118</v>
       </c>
@@ -9785,12 +9784,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>118</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>118</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>118</v>
       </c>
@@ -9851,17 +9850,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>114</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>118</v>
       </c>
@@ -9886,12 +9885,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>118</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>118</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>264</v>
       </c>
@@ -9976,12 +9975,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>118</v>
       </c>
@@ -9992,10 +9991,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -10009,12 +10008,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -10022,12 +10021,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>260</v>
       </c>
@@ -10041,12 +10040,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -10067,208 +10066,208 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
   </sheetData>
@@ -10287,15 +10286,15 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -10303,40 +10302,40 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -10344,10 +10343,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
@@ -10358,10 +10357,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
@@ -10370,34 +10369,34 @@
         <v>Gerente de Projetos/Team Leader/Tech Leader</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C18:C65" si="0">A23</f>
+        <f t="shared" ref="C23:C60" si="0">A23</f>
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>141</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>Pesquisadora</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>137</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>141</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>Pesquisadora</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>143</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>Analista de Sistemas/Negócios</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>99</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>Gerente de Projetos/Team Leader/Tech Leader</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>Gerente de Projetos/Team Leader/Tech Leader</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>288</v>
       </c>
@@ -10462,13 +10461,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>87</v>
       </c>
@@ -10492,7 +10491,7 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>185</v>
       </c>
@@ -10525,16 +10524,16 @@
         <v>Professora/Pesquisadora Ensino Superior</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -10543,7 +10542,7 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>185</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>Professora/Pesquisadora Ensino Superior</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -10564,10 +10563,10 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>191</v>
       </c>
@@ -10576,13 +10575,13 @@
         <v>Servidora Pública</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>87</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -10600,16 +10599,16 @@
         <v>Programadora/Desenvolvedora</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>Pesquisadora</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>185</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>Professora/Pesquisadora Ensino Superior</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>219</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>Mudei de área</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>223</v>
       </c>
@@ -10647,10 +10646,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>141</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v>Pesquisadora</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>185</v>
       </c>
@@ -10668,19 +10667,19 @@
         <v>Professora/Pesquisadora Ensino Superior</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -10701,19 +10700,19 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="174.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="174.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10722,7 +10721,7 @@
       </c>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>98</v>
       </c>
@@ -10762,7 +10761,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>98</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>246</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>98</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>98</v>
       </c>
@@ -10868,14 +10867,14 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>246</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>98</v>
       </c>
@@ -10906,7 +10905,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
@@ -10915,21 +10914,21 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>93</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>98</v>
       </c>
@@ -10951,14 +10950,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>93</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -10978,7 +10977,7 @@
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>93</v>
       </c>
@@ -10987,7 +10986,7 @@
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>246</v>
       </c>
@@ -10998,7 +10997,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -11009,7 +11008,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>98</v>
       </c>
@@ -11023,13 +11022,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>93</v>
       </c>
@@ -11037,13 +11036,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>93</v>
       </c>
@@ -11051,7 +11050,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>98</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>98</v>
       </c>
@@ -11073,7 +11072,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>98</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>98</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>98</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>98</v>
       </c>
@@ -11123,14 +11122,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>93</v>
       </c>
@@ -11139,7 +11138,7 @@
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>93</v>
       </c>
@@ -11148,7 +11147,7 @@
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>93</v>
       </c>
@@ -11157,7 +11156,7 @@
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
@@ -11177,7 +11176,7 @@
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>69</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>98</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>93</v>
       </c>
@@ -11201,12 +11200,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>98</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>98</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>69</v>
       </c>
@@ -11240,7 +11239,7 @@
       </c>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>98</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>93</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>93</v>
       </c>
@@ -11279,7 +11278,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>93</v>
       </c>
@@ -11288,7 +11287,7 @@
       </c>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>93</v>
       </c>
@@ -11297,7 +11296,7 @@
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>93</v>
       </c>
@@ -11306,7 +11305,7 @@
       </c>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>93</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>93</v>
       </c>
@@ -11326,7 +11325,7 @@
       </c>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>93</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>98</v>
       </c>
@@ -11346,7 +11345,7 @@
       </c>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>93</v>
       </c>
@@ -11355,7 +11354,7 @@
       </c>
       <c r="C60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>93</v>
       </c>
@@ -11364,7 +11363,7 @@
       </c>
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>98</v>
       </c>
@@ -11375,13 +11374,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>238</v>
       </c>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>93</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>93</v>
       </c>
